--- a/ReportsGen/OutageReportsGen/data/ReportsDB.xlsx
+++ b/ReportsGen/OutageReportsGen/data/ReportsDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="894" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="894" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,12 +29,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,6 +81,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -97,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -263,6 +269,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -272,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -343,6 +364,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,6 +1383,16 @@
           <t>BTS_001</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1402,6 +1438,16 @@
           <t>BTS_001U</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1447,6 +1493,16 @@
           <t>BTS_001L</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1492,6 +1548,16 @@
           <t>BTS_002</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1537,6 +1603,16 @@
           <t>BTS_002U</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1582,6 +1658,16 @@
           <t>BTS_002L</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1627,6 +1713,16 @@
           <t>BTS_003</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1672,6 +1768,16 @@
           <t>BTS_003U</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1717,6 +1823,16 @@
           <t>BTS_003L</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -1762,6 +1878,16 @@
           <t>BTS_002</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Connection loss in BTS_002 due to discharge of battery.</t>
@@ -1807,6 +1933,16 @@
           <t>BTS_002U</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Connection loss in BTS_002 due to discharge of battery.</t>
@@ -1852,6 +1988,16 @@
           <t>BTS_002L</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Connection loss in BTS_002 due to discharge of battery.</t>
@@ -1897,6 +2043,16 @@
           <t>BTS_003</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -1942,6 +2098,16 @@
           <t>BTS_003U</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -1987,6 +2153,16 @@
           <t>BTS_003L</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -2032,6 +2208,16 @@
           <t>BTS_006</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -2077,6 +2263,16 @@
           <t>BTS_006U</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -2122,6 +2318,16 @@
           <t>BTS_006L</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -2167,6 +2373,16 @@
           <t>BTS_011</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>Failure of BTS_011 link due to problems with ODU on BTS_011. Recovered after software restart of ODU.</t>
@@ -2212,6 +2428,16 @@
           <t>BTS_011U</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Failure of BTS_011 link due to problems with ODU on BTS_011. Recovered after software restart of ODU.</t>
@@ -2257,6 +2483,16 @@
           <t>BTS_011L</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>Failure of BTS_011 link due to problems with ODU on BTS_011. Recovered after software restart of ODU.</t>
@@ -2302,6 +2538,16 @@
           <t>BTS_005</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>Failure of nan due to SIU on BTS_005. Recovered after replacement of SIU.</t>
@@ -2347,6 +2593,16 @@
           <t>BTS_005U</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005U, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005U, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>Failure of nan due to SIU on BTS_005. Recovered after replacement of SIU.</t>
@@ -2392,6 +2648,16 @@
           <t>BTS_005L</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005L, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005L, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Failure of nan due to SIU on BTS_005. Recovered after replacement of SIU.</t>
@@ -2437,6 +2703,16 @@
           <t>BTS_006</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -2482,6 +2758,16 @@
           <t>BTS_006U</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -2527,6 +2813,16 @@
           <t>BTS_006L</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -2572,6 +2868,16 @@
           <t>BTS_012</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -2617,6 +2923,16 @@
           <t>BTS_012U</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -2662,6 +2978,16 @@
           <t>BTS_012L</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -2707,6 +3033,16 @@
           <t>BTS_007</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>Connection loss in BTS_007 due to discharge of battery.</t>
@@ -2752,6 +3088,16 @@
           <t>BTS_007U</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Connection loss in BTS_007 due to discharge of battery.</t>
@@ -2797,6 +3143,16 @@
           <t>BTS_007L</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>Connection loss in BTS_007 due to discharge of battery.</t>
@@ -2842,6 +3198,16 @@
           <t>BTS_008</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Connection loss in BTS_008 due to discharge of battery.</t>
@@ -2887,6 +3253,16 @@
           <t>BTS_008U</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008U, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008U, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>Connection loss in BTS_008 due to discharge of battery.</t>
@@ -2932,6 +3308,16 @@
           <t>BTS_008L</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008L, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008L, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>Connection loss in BTS_008 due to discharge of battery.</t>
@@ -2977,6 +3363,16 @@
           <t>BTS_009</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>Failure of BTS_009-BTS_010 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -3022,6 +3418,16 @@
           <t>BTS_009U</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009U, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009U, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>Failure of BTS_009-BTS_010 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -3067,6 +3473,16 @@
           <t>BTS_009L</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009L, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009L, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>Failure of BTS_009-BTS_010 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -3112,6 +3528,16 @@
           <t>BTS_010</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3157,6 +3583,16 @@
           <t>BTS_010U</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010U, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010U, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3202,6 +3638,16 @@
           <t>BTS_010L</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010L, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010L, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3247,6 +3693,16 @@
           <t>BTS_004</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3292,6 +3748,16 @@
           <t>BTS_004U</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3337,6 +3803,16 @@
           <t>BTS_004L</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3382,6 +3858,16 @@
           <t>BTS_018</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3427,6 +3913,16 @@
           <t>BTS_018U</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3472,6 +3968,16 @@
           <t>BTS_018L</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3517,6 +4023,16 @@
           <t>BTS_015</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3562,6 +4078,16 @@
           <t>BTS_015U</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015U, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015U, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3607,6 +4133,16 @@
           <t>BTS_015L</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015L, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015L, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -3652,6 +4188,16 @@
           <t>BTS_011</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>Failure of BTS_011-BTS_012 link due to problems with ODU on BTS_011. Recovered after hard restart of ODU.</t>
@@ -3697,6 +4243,16 @@
           <t>BTS_011U</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>Failure of BTS_011-BTS_012 link due to problems with ODU on BTS_011. Recovered after hard restart of ODU.</t>
@@ -3742,6 +4298,16 @@
           <t>BTS_011L</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>Failure of BTS_011-BTS_012 link due to problems with ODU on BTS_011. Recovered after hard restart of ODU.</t>
@@ -3787,6 +4353,16 @@
           <t>BTS_012</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>Failure of BTS_012-BTS_014 link due to problems with MSS1 on BTS_012. Recovered after replacement of MSS1.</t>
@@ -3832,6 +4408,16 @@
           <t>BTS_012U</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>Failure of BTS_012-BTS_014 link due to problems with MSS1 on BTS_012. Recovered after replacement of MSS1.</t>
@@ -3877,6 +4463,16 @@
           <t>BTS_012L</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>Failure of BTS_012-BTS_014 link due to problems with MSS1 on BTS_012. Recovered after replacement of MSS1.</t>
@@ -3922,6 +4518,16 @@
           <t>BTS_004</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>Failure of BTS_004-BTS_005 link due to problems with MSS1C on BTS_004. Recovered after replacement of MSS1C.</t>
@@ -3967,6 +4573,16 @@
           <t>BTS_004U</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>Failure of BTS_004-BTS_005 link due to problems with MSS1C on BTS_004. Recovered after replacement of MSS1C.</t>
@@ -4012,6 +4628,16 @@
           <t>BTS_004L</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>Failure of BTS_004-BTS_005 link due to problems with MSS1C on BTS_004. Recovered after replacement of MSS1C.</t>
@@ -4057,6 +4683,16 @@
           <t>BTS_006</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>Failure of BTS_006-BTS_007 link due to problems with MSS4 on BTS_006. Recovered after hard restart of MSS4.</t>
@@ -4102,6 +4738,16 @@
           <t>BTS_006U</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>Failure of BTS_006-BTS_007 link due to problems with MSS4 on BTS_006. Recovered after hard restart of MSS4.</t>
@@ -4147,6 +4793,16 @@
           <t>BTS_006L</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>Failure of BTS_006-BTS_007 link due to problems with MSS4 on BTS_006. Recovered after hard restart of MSS4.</t>
@@ -4192,6 +4848,16 @@
           <t>BTS_007</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>Failure of nan due to DUG on BTS_007. Recovered after hard restart of DUG.</t>
@@ -4237,6 +4903,16 @@
           <t>BTS_007U</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>Failure of nan due to DUG on BTS_007. Recovered after hard restart of DUG.</t>
@@ -4282,6 +4958,16 @@
           <t>BTS_007L</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>Failure of nan due to DUG on BTS_007. Recovered after hard restart of DUG.</t>
@@ -4327,6 +5013,16 @@
           <t>BTS_011</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>Connection loss in BTS_011 due to discharge of battery.</t>
@@ -4372,6 +5068,16 @@
           <t>BTS_011U</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Connection loss in BTS_011 due to discharge of battery.</t>
@@ -4417,6 +5123,16 @@
           <t>BTS_011L</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>Connection loss in BTS_011 due to discharge of battery.</t>
@@ -4462,6 +5178,16 @@
           <t>BTS_001</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>Failure of nan due to DUW on BTS_001. Recovered automatically.</t>
@@ -4507,6 +5233,16 @@
           <t>BTS_001U</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>Failure of nan due to DUW on BTS_001. Recovered automatically.</t>
@@ -4552,6 +5288,16 @@
           <t>BTS_001L</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>Failure of nan due to DUW on BTS_001. Recovered automatically.</t>
@@ -4597,6 +5343,16 @@
           <t>BTS_018</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>Problem was not detected. BTS_018 recovered automatically.</t>
@@ -4642,6 +5398,16 @@
           <t>BTS_018U</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>Problem was not detected. BTS_018 recovered automatically.</t>
@@ -4687,6 +5453,16 @@
           <t>BTS_018L</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
           <t>Problem was not detected. BTS_018 recovered automatically.</t>
@@ -4732,6 +5508,16 @@
           <t>BTS_004</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>Connection loss in BTS_004 due to discharge of battery.</t>
@@ -4777,6 +5563,16 @@
           <t>BTS_004U</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>Connection loss in BTS_004 due to discharge of battery.</t>
@@ -4822,6 +5618,16 @@
           <t>BTS_004L</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>Connection loss in BTS_004 due to discharge of battery.</t>
@@ -4867,6 +5673,16 @@
           <t>BTS_019</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019, Region19, str. 2, bld. 19</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>Failure of nan due to BBU on BTS_019.</t>
@@ -4912,6 +5728,16 @@
           <t>BTS_019U</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019U, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019U, Region19, str. 2, bld. 19</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>Failure of nan due to BBU on BTS_019.</t>
@@ -4955,6 +5781,16 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>BTS_019L</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019L, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019L, Region19, str. 2, bld. 19</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4988,60 +5824,60 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="B1" s="30" t="inlineStr">
+      <c r="B1" s="32" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="32" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="D1" s="30" t="inlineStr">
+      <c r="D1" s="32" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="E1" s="30" t="inlineStr">
+      <c r="E1" s="32" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="F1" s="32" t="inlineStr">
         <is>
           <t>Site Code</t>
         </is>
       </c>
-      <c r="G1" s="30" t="inlineStr">
+      <c r="G1" s="32" t="inlineStr">
         <is>
           <t>Site_Code_Address_rus</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="32" t="inlineStr">
         <is>
           <t>Site_Code_Address_eng</t>
         </is>
       </c>
-      <c r="I1" s="30" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>ProblemDescription_eng</t>
         </is>
       </c>
-      <c r="J1" s="30" t="inlineStr">
+      <c r="J1" s="32" t="inlineStr">
         <is>
           <t>ProblemDescription_rus</t>
         </is>
       </c>
-      <c r="K1" s="30" t="inlineStr">
+      <c r="K1" s="32" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
@@ -5078,6 +5914,16 @@
           <t>BTS_001</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5123,6 +5969,16 @@
           <t>BTS_001U</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5168,6 +6024,16 @@
           <t>BTS_001L</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5213,6 +6079,16 @@
           <t>BTS_002</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5258,6 +6134,16 @@
           <t>BTS_002U</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5303,6 +6189,16 @@
           <t>BTS_002L</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5348,6 +6244,16 @@
           <t>BTS_003</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5393,6 +6299,16 @@
           <t>BTS_003U</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5438,6 +6354,16 @@
           <t>BTS_003L</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Failure of BTS_001 due to discharge of battery on BTS_001.</t>
@@ -5483,6 +6409,16 @@
           <t>BTS_002</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Connection loss in BTS_002 due to discharge of battery.</t>
@@ -5528,6 +6464,16 @@
           <t>BTS_002U</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Connection loss in BTS_002 due to discharge of battery.</t>
@@ -5573,6 +6519,16 @@
           <t>BTS_002L</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Connection loss in BTS_002 due to discharge of battery.</t>
@@ -5618,6 +6574,16 @@
           <t>BTS_003</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -5663,6 +6629,16 @@
           <t>BTS_003U</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -5708,6 +6684,16 @@
           <t>BTS_003L</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -5753,6 +6739,16 @@
           <t>BTS_006</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -5798,6 +6794,16 @@
           <t>BTS_006U</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -5843,6 +6849,16 @@
           <t>BTS_006L</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>Failure of BTS_003-BTS_006 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -5888,6 +6904,16 @@
           <t>BTS_011</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>Failure of BTS_011 link due to problems with ODU on BTS_011. Recovered after software restart of ODU.</t>
@@ -5933,6 +6959,16 @@
           <t>BTS_011U</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Failure of BTS_011 link due to problems with ODU on BTS_011. Recovered after software restart of ODU.</t>
@@ -5978,6 +7014,16 @@
           <t>BTS_011L</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>Failure of BTS_011 link due to problems with ODU on BTS_011. Recovered after software restart of ODU.</t>
@@ -6023,6 +7069,16 @@
           <t>BTS_005</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>Failure of nan due to SIU on BTS_005. Recovered after replacement of SIU.</t>
@@ -6068,6 +7124,16 @@
           <t>BTS_005U</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005U, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005U, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>Failure of nan due to SIU on BTS_005. Recovered after replacement of SIU.</t>
@@ -6113,6 +7179,16 @@
           <t>BTS_005L</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005L, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005L, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Failure of nan due to SIU on BTS_005. Recovered after replacement of SIU.</t>
@@ -6158,6 +7234,16 @@
           <t>BTS_006</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -6203,6 +7289,16 @@
           <t>BTS_006U</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -6248,6 +7344,16 @@
           <t>BTS_006L</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -6293,6 +7399,16 @@
           <t>BTS_012</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -6338,6 +7454,16 @@
           <t>BTS_012U</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -6383,6 +7509,16 @@
           <t>BTS_012L</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Failure of nan due to discharge of battery on BTS_006.</t>
@@ -6428,6 +7564,16 @@
           <t>BTS_007</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>Connection loss in BTS_007 due to discharge of battery.</t>
@@ -6473,6 +7619,16 @@
           <t>BTS_007U</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Connection loss in BTS_007 due to discharge of battery.</t>
@@ -6518,6 +7674,16 @@
           <t>BTS_007L</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>Connection loss in BTS_007 due to discharge of battery.</t>
@@ -6563,6 +7729,16 @@
           <t>BTS_008</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Connection loss in BTS_008 due to discharge of battery.</t>
@@ -6608,6 +7784,16 @@
           <t>BTS_008U</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008U, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008U, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>Connection loss in BTS_008 due to discharge of battery.</t>
@@ -6653,6 +7839,16 @@
           <t>BTS_008L</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008L, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008L, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>Connection loss in BTS_008 due to discharge of battery.</t>
@@ -6698,6 +7894,16 @@
           <t>BTS_009</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>Failure of BTS_009-BTS_010 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -6743,6 +7949,16 @@
           <t>BTS_009U</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009U, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009U, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>Failure of BTS_009-BTS_010 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -6788,6 +8004,16 @@
           <t>BTS_009L</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009L, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009L, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>Failure of BTS_009-BTS_010 link due to FO cut. The connection was recovered after the replacement of damaged FO part.</t>
@@ -6833,6 +8059,16 @@
           <t>BTS_010</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -6878,6 +8114,16 @@
           <t>BTS_010U</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010U, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010U, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -6923,6 +8169,16 @@
           <t>BTS_010L</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010L, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010L, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -6968,6 +8224,16 @@
           <t>BTS_004</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7013,6 +8279,16 @@
           <t>BTS_004U</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7058,6 +8334,16 @@
           <t>BTS_004L</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7103,6 +8389,16 @@
           <t>BTS_018</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7148,6 +8444,16 @@
           <t>BTS_018U</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7193,6 +8499,16 @@
           <t>BTS_018L</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7238,6 +8554,16 @@
           <t>BTS_015</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7283,6 +8609,16 @@
           <t>BTS_015U</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015U, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015U, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7328,6 +8664,16 @@
           <t>BTS_015L</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015L, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015L, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>Failure of BTS_015-BTS_010 link due to problems with ODU on BTS_010. Recovered after replacement of ODU.</t>
@@ -7373,6 +8719,16 @@
           <t>BTS_011</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>Failure of BTS_011-BTS_012 link due to problems with ODU on BTS_011. Recovered after hard restart of ODU.</t>
@@ -7418,6 +8774,16 @@
           <t>BTS_011U</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>Failure of BTS_011-BTS_012 link due to problems with ODU on BTS_011. Recovered after hard restart of ODU.</t>
@@ -7463,6 +8829,16 @@
           <t>BTS_011L</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>Failure of BTS_011-BTS_012 link due to problems with ODU on BTS_011. Recovered after hard restart of ODU.</t>
@@ -7508,6 +8884,16 @@
           <t>BTS_012</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>Failure of BTS_012-BTS_014 link due to problems with MSS1 on BTS_012. Recovered after replacement of MSS1.</t>
@@ -7553,6 +8939,16 @@
           <t>BTS_012U</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>Failure of BTS_012-BTS_014 link due to problems with MSS1 on BTS_012. Recovered after replacement of MSS1.</t>
@@ -7598,6 +8994,16 @@
           <t>BTS_012L</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>Failure of BTS_012-BTS_014 link due to problems with MSS1 on BTS_012. Recovered after replacement of MSS1.</t>
@@ -7643,6 +9049,16 @@
           <t>BTS_004</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>Failure of BTS_004-BTS_005 link due to problems with MSS1C on BTS_004. Recovered after replacement of MSS1C.</t>
@@ -7688,6 +9104,16 @@
           <t>BTS_004U</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>Failure of BTS_004-BTS_005 link due to problems with MSS1C on BTS_004. Recovered after replacement of MSS1C.</t>
@@ -7733,6 +9159,16 @@
           <t>BTS_004L</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>Failure of BTS_004-BTS_005 link due to problems with MSS1C on BTS_004. Recovered after replacement of MSS1C.</t>
@@ -7778,6 +9214,16 @@
           <t>BTS_006</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>Failure of BTS_006-BTS_007 link due to problems with MSS4 on BTS_006. Recovered after hard restart of MSS4.</t>
@@ -7823,6 +9269,16 @@
           <t>BTS_006U</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>Failure of BTS_006-BTS_007 link due to problems with MSS4 on BTS_006. Recovered after hard restart of MSS4.</t>
@@ -7868,6 +9324,16 @@
           <t>BTS_006L</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>Failure of BTS_006-BTS_007 link due to problems with MSS4 on BTS_006. Recovered after hard restart of MSS4.</t>
@@ -7913,6 +9379,16 @@
           <t>BTS_007</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>Failure of nan due to DUG on BTS_007. Recovered after hard restart of DUG.</t>
@@ -7958,6 +9434,16 @@
           <t>BTS_007U</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>Failure of nan due to DUG on BTS_007. Recovered after hard restart of DUG.</t>
@@ -8003,6 +9489,16 @@
           <t>BTS_007L</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>Failure of nan due to DUG on BTS_007. Recovered after hard restart of DUG.</t>
@@ -8048,6 +9544,16 @@
           <t>BTS_011</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>Connection loss in BTS_011 due to discharge of battery.</t>
@@ -8093,6 +9599,16 @@
           <t>BTS_011U</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>Connection loss in BTS_011 due to discharge of battery.</t>
@@ -8138,6 +9654,16 @@
           <t>BTS_011L</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>Connection loss in BTS_011 due to discharge of battery.</t>
@@ -8183,6 +9709,16 @@
           <t>BTS_001</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>Failure of nan due to DUW on BTS_001. Recovered automatically.</t>
@@ -8228,6 +9764,16 @@
           <t>BTS_001U</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>Failure of nan due to DUW on BTS_001. Recovered automatically.</t>
@@ -8273,6 +9819,16 @@
           <t>BTS_001L</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>Failure of nan due to DUW on BTS_001. Recovered automatically.</t>
@@ -8318,6 +9874,16 @@
           <t>BTS_018</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>Problem was not detected. BTS_018 recovered automatically.</t>
@@ -8363,6 +9929,16 @@
           <t>BTS_018U</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>Problem was not detected. BTS_018 recovered automatically.</t>
@@ -8408,6 +9984,16 @@
           <t>BTS_018L</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
           <t>Problem was not detected. BTS_018 recovered automatically.</t>
@@ -8453,6 +10039,16 @@
           <t>BTS_004</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>Connection loss in BTS_004 due to discharge of battery.</t>
@@ -8498,6 +10094,16 @@
           <t>BTS_004U</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>Connection loss in BTS_004 due to discharge of battery.</t>
@@ -8543,6 +10149,16 @@
           <t>BTS_004L</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>Connection loss in BTS_004 due to discharge of battery.</t>
@@ -8588,6 +10204,16 @@
           <t>BTS_019</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019, Region19, str. 2, bld. 19</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>Failure of nan due to BBU on BTS_019.</t>
@@ -8633,6 +10259,16 @@
           <t>BTS_019U</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019U, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019U, Region19, str. 2, bld. 19</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>Failure of nan due to BBU on BTS_019.</t>
@@ -8676,6 +10312,16 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>BTS_019L</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019L, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019L, Region19, str. 2, bld. 19</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -9788,15 +11434,18 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="15.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="46.33203125" customWidth="1" style="28" min="2" max="3"/>
-    <col width="13.21875" customWidth="1" min="4" max="5"/>
+    <col width="7.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="8.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="11.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="46.33203125" customWidth="1" style="28" min="6" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9805,12 +11454,32 @@
           <t>Site Code</t>
         </is>
       </c>
-      <c r="B1" s="28" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rus_1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rus_2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>eng_1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>eng_2</t>
+        </is>
+      </c>
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>Site_Code_Address_rus</t>
         </is>
       </c>
-      <c r="C1" s="28" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Site_Code_Address_eng</t>
         </is>
@@ -9822,33 +11491,33 @@
           <t>BTS_001</t>
         </is>
       </c>
-      <c r="B2" s="29">
-        <f>CONCATENATE("BTS - ",A2,", ",D2,E2)</f>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Марз1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Region1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 1</t>
+        </is>
+      </c>
+      <c r="F2" s="29">
+        <f>CONCATENATE("BTS - ",A2,", ",B2,C2)</f>
         <v/>
       </c>
-      <c r="C2" s="29">
-        <f>CONCATENATE("BTS - ",A2,", ",F2,", ",G2)</f>
+      <c r="G2" s="29">
+        <f>CONCATENATE("BTS - ",A2,", ",D2,", ",E2)</f>
         <v/>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Марз1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Region1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 1</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -9857,33 +11526,33 @@
           <t>BTS_002</t>
         </is>
       </c>
-      <c r="B3" s="29">
-        <f>CONCATENATE("BTS - ",A3,", ",D3,E3)</f>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Марз2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Region2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 2</t>
+        </is>
+      </c>
+      <c r="F3" s="29">
+        <f>CONCATENATE("BTS - ",A3,", ",B3,C3)</f>
         <v/>
       </c>
-      <c r="C3" s="29">
-        <f>CONCATENATE("BTS - ",A3,", ",F3,", ",G3)</f>
+      <c r="G3" s="29">
+        <f>CONCATENATE("BTS - ",A3,", ",D3,", ",E3)</f>
         <v/>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Марз2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Region2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 2</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -9892,33 +11561,33 @@
           <t>BTS_003</t>
         </is>
       </c>
-      <c r="B4" s="29">
-        <f>CONCATENATE("BTS - ",A4,", ",D4,E4)</f>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Марз3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Region3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 3</t>
+        </is>
+      </c>
+      <c r="F4" s="29">
+        <f>CONCATENATE("BTS - ",A4,", ",B4,C4)</f>
         <v/>
       </c>
-      <c r="C4" s="29">
-        <f>CONCATENATE("BTS - ",A4,", ",F4,", ",G4)</f>
+      <c r="G4" s="29">
+        <f>CONCATENATE("BTS - ",A4,", ",D4,", ",E4)</f>
         <v/>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Марз3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Region3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 3</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -9927,33 +11596,33 @@
           <t>BTS_004</t>
         </is>
       </c>
-      <c r="B5" s="29">
-        <f>CONCATENATE("BTS - ",A5,", ",D5,E5)</f>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Марз4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Region4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 4</t>
+        </is>
+      </c>
+      <c r="F5" s="29">
+        <f>CONCATENATE("BTS - ",A5,", ",B5,C5)</f>
         <v/>
       </c>
-      <c r="C5" s="29">
-        <f>CONCATENATE("BTS - ",A5,", ",F5,", ",G5)</f>
+      <c r="G5" s="29">
+        <f>CONCATENATE("BTS - ",A5,", ",D5,", ",E5)</f>
         <v/>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Марз4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Region4</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 4</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -9962,33 +11631,33 @@
           <t>BTS_005</t>
         </is>
       </c>
-      <c r="B6" s="29">
-        <f>CONCATENATE("BTS - ",A6,", ",D6,E6)</f>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Марз5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Region5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 5</t>
+        </is>
+      </c>
+      <c r="F6" s="29">
+        <f>CONCATENATE("BTS - ",A6,", ",B6,C6)</f>
         <v/>
       </c>
-      <c r="C6" s="29">
-        <f>CONCATENATE("BTS - ",A6,", ",F6,", ",G6)</f>
+      <c r="G6" s="29">
+        <f>CONCATENATE("BTS - ",A6,", ",D6,", ",E6)</f>
         <v/>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Марз5</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Region5</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 5</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -9997,33 +11666,33 @@
           <t>BTS_006</t>
         </is>
       </c>
-      <c r="B7" s="29">
-        <f>CONCATENATE("BTS - ",A7,", ",D7,E7)</f>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Марз6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Region6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 6</t>
+        </is>
+      </c>
+      <c r="F7" s="29">
+        <f>CONCATENATE("BTS - ",A7,", ",B7,C7)</f>
         <v/>
       </c>
-      <c r="C7" s="29">
-        <f>CONCATENATE("BTS - ",A7,", ",F7,", ",G7)</f>
+      <c r="G7" s="29">
+        <f>CONCATENATE("BTS - ",A7,", ",D7,", ",E7)</f>
         <v/>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Марз6</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 6</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Region6</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 6</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -10032,33 +11701,33 @@
           <t>BTS_007</t>
         </is>
       </c>
-      <c r="B8" s="29">
-        <f>CONCATENATE("BTS - ",A8,", ",D8,E8)</f>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Марз7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Region7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 7</t>
+        </is>
+      </c>
+      <c r="F8" s="29">
+        <f>CONCATENATE("BTS - ",A8,", ",B8,C8)</f>
         <v/>
       </c>
-      <c r="C8" s="29">
-        <f>CONCATENATE("BTS - ",A8,", ",F8,", ",G8)</f>
+      <c r="G8" s="29">
+        <f>CONCATENATE("BTS - ",A8,", ",D8,", ",E8)</f>
         <v/>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Марз7</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 7</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Region7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 7</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -10067,33 +11736,33 @@
           <t>BTS_008</t>
         </is>
       </c>
-      <c r="B9" s="29">
-        <f>CONCATENATE("BTS - ",A9,", ",D9,E9)</f>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Марз8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Region8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 8</t>
+        </is>
+      </c>
+      <c r="F9" s="29">
+        <f>CONCATENATE("BTS - ",A9,", ",B9,C9)</f>
         <v/>
       </c>
-      <c r="C9" s="29">
-        <f>CONCATENATE("BTS - ",A9,", ",F9,", ",G9)</f>
+      <c r="G9" s="29">
+        <f>CONCATENATE("BTS - ",A9,", ",D9,", ",E9)</f>
         <v/>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Марз8</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 8</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Region8</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 8</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -10102,33 +11771,33 @@
           <t>BTS_009</t>
         </is>
       </c>
-      <c r="B10" s="29">
-        <f>CONCATENATE("BTS - ",A10,", ",D10,E10)</f>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Марз9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Region9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 9</t>
+        </is>
+      </c>
+      <c r="F10" s="29">
+        <f>CONCATENATE("BTS - ",A10,", ",B10,C10)</f>
         <v/>
       </c>
-      <c r="C10" s="29">
-        <f>CONCATENATE("BTS - ",A10,", ",F10,", ",G10)</f>
+      <c r="G10" s="29">
+        <f>CONCATENATE("BTS - ",A10,", ",D10,", ",E10)</f>
         <v/>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Марз9</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 9</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Region9</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 9</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -10137,33 +11806,33 @@
           <t>BTS_010</t>
         </is>
       </c>
-      <c r="B11" s="29">
-        <f>CONCATENATE("BTS - ",A11,", ",D11,E11)</f>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Марз10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Region10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 10</t>
+        </is>
+      </c>
+      <c r="F11" s="29">
+        <f>CONCATENATE("BTS - ",A11,", ",B11,C11)</f>
         <v/>
       </c>
-      <c r="C11" s="29">
-        <f>CONCATENATE("BTS - ",A11,", ",F11,", ",G11)</f>
+      <c r="G11" s="29">
+        <f>CONCATENATE("BTS - ",A11,", ",D11,", ",E11)</f>
         <v/>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Марз10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Region10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 10</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -10172,33 +11841,33 @@
           <t>BTS_011</t>
         </is>
       </c>
-      <c r="B12" s="29">
-        <f>CONCATENATE("BTS - ",A12,", ",D12,E12)</f>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Марз11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Region11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 11</t>
+        </is>
+      </c>
+      <c r="F12" s="29">
+        <f>CONCATENATE("BTS - ",A12,", ",B12,C12)</f>
         <v/>
       </c>
-      <c r="C12" s="29">
-        <f>CONCATENATE("BTS - ",A12,", ",F12,", ",G12)</f>
+      <c r="G12" s="29">
+        <f>CONCATENATE("BTS - ",A12,", ",D12,", ",E12)</f>
         <v/>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Марз11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 11</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Region11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 11</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -10207,33 +11876,33 @@
           <t>BTS_012</t>
         </is>
       </c>
-      <c r="B13" s="29">
-        <f>CONCATENATE("BTS - ",A13,", ",D13,E13)</f>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Марз12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Region12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 12</t>
+        </is>
+      </c>
+      <c r="F13" s="29">
+        <f>CONCATENATE("BTS - ",A13,", ",B13,C13)</f>
         <v/>
       </c>
-      <c r="C13" s="29">
-        <f>CONCATENATE("BTS - ",A13,", ",F13,", ",G13)</f>
+      <c r="G13" s="29">
+        <f>CONCATENATE("BTS - ",A13,", ",D13,", ",E13)</f>
         <v/>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Марз12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 12</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Region12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 12</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -10242,33 +11911,33 @@
           <t>BTS_013</t>
         </is>
       </c>
-      <c r="B14" s="29">
-        <f>CONCATENATE("BTS - ",A14,", ",D14,E14)</f>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Марз13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Region13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 13</t>
+        </is>
+      </c>
+      <c r="F14" s="29">
+        <f>CONCATENATE("BTS - ",A14,", ",B14,C14)</f>
         <v/>
       </c>
-      <c r="C14" s="29">
-        <f>CONCATENATE("BTS - ",A14,", ",F14,", ",G14)</f>
+      <c r="G14" s="29">
+        <f>CONCATENATE("BTS - ",A14,", ",D14,", ",E14)</f>
         <v/>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Марз13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Region13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 13</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -10277,33 +11946,33 @@
           <t>BTS_014</t>
         </is>
       </c>
-      <c r="B15" s="29">
-        <f>CONCATENATE("BTS - ",A15,", ",D15,E15)</f>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Марз14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Region14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 14</t>
+        </is>
+      </c>
+      <c r="F15" s="29">
+        <f>CONCATENATE("BTS - ",A15,", ",B15,C15)</f>
         <v/>
       </c>
-      <c r="C15" s="29">
-        <f>CONCATENATE("BTS - ",A15,", ",F15,", ",G15)</f>
+      <c r="G15" s="29">
+        <f>CONCATENATE("BTS - ",A15,", ",D15,", ",E15)</f>
         <v/>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Марз14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 14</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Region14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 14</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -10312,33 +11981,33 @@
           <t>BTS_015</t>
         </is>
       </c>
-      <c r="B16" s="29">
-        <f>CONCATENATE("BTS - ",A16,", ",D16,E16)</f>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Марз15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Region15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 15</t>
+        </is>
+      </c>
+      <c r="F16" s="29">
+        <f>CONCATENATE("BTS - ",A16,", ",B16,C16)</f>
         <v/>
       </c>
-      <c r="C16" s="29">
-        <f>CONCATENATE("BTS - ",A16,", ",F16,", ",G16)</f>
+      <c r="G16" s="29">
+        <f>CONCATENATE("BTS - ",A16,", ",D16,", ",E16)</f>
         <v/>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Марз15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 15</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Region15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 15</t>
-        </is>
       </c>
     </row>
     <row r="17">
@@ -10347,33 +12016,33 @@
           <t>BTS_016</t>
         </is>
       </c>
-      <c r="B17" s="29">
-        <f>CONCATENATE("BTS - ",A17,", ",D17,E17)</f>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Марз16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Region16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 16</t>
+        </is>
+      </c>
+      <c r="F17" s="29">
+        <f>CONCATENATE("BTS - ",A17,", ",B17,C17)</f>
         <v/>
       </c>
-      <c r="C17" s="29">
-        <f>CONCATENATE("BTS - ",A17,", ",F17,", ",G17)</f>
+      <c r="G17" s="29">
+        <f>CONCATENATE("BTS - ",A17,", ",D17,", ",E17)</f>
         <v/>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Марз16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 16</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Region16</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 16</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -10382,33 +12051,33 @@
           <t>BTS_017</t>
         </is>
       </c>
-      <c r="B18" s="29">
-        <f>CONCATENATE("BTS - ",A18,", ",D18,E18)</f>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Марз17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Region17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 17</t>
+        </is>
+      </c>
+      <c r="F18" s="29">
+        <f>CONCATENATE("BTS - ",A18,", ",B18,C18)</f>
         <v/>
       </c>
-      <c r="C18" s="29">
-        <f>CONCATENATE("BTS - ",A18,", ",F18,", ",G18)</f>
+      <c r="G18" s="29">
+        <f>CONCATENATE("BTS - ",A18,", ",D18,", ",E18)</f>
         <v/>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Марз17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Region17</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 17</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -10417,33 +12086,33 @@
           <t>BTS_018</t>
         </is>
       </c>
-      <c r="B19" s="29">
-        <f>CONCATENATE("BTS - ",A19,", ",D19,E19)</f>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Марз18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Region18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>str. 1, bld. 18</t>
+        </is>
+      </c>
+      <c r="F19" s="29">
+        <f>CONCATENATE("BTS - ",A19,", ",B19,C19)</f>
         <v/>
       </c>
-      <c r="C19" s="29">
-        <f>CONCATENATE("BTS - ",A19,", ",F19,", ",G19)</f>
+      <c r="G19" s="29">
+        <f>CONCATENATE("BTS - ",A19,", ",D19,", ",E19)</f>
         <v/>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Марз18</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>, ул. 1, зд. 18</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Region18</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>str. 1, bld. 18</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -10452,33 +12121,33 @@
           <t>BTS_019</t>
         </is>
       </c>
-      <c r="B20" s="29">
-        <f>CONCATENATE("BTS - ",A20,", ",D20,E20)</f>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Марз19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Region19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>str. 2, bld. 19</t>
+        </is>
+      </c>
+      <c r="F20" s="29">
+        <f>CONCATENATE("BTS - ",A20,", ",B20,C20)</f>
         <v/>
       </c>
-      <c r="C20" s="29">
-        <f>CONCATENATE("BTS - ",A20,", ",F20,", ",G20)</f>
+      <c r="G20" s="29">
+        <f>CONCATENATE("BTS - ",A20,", ",D20,", ",E20)</f>
         <v/>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Марз19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>, ул.2, зд. 19</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Region19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>str. 2, bld. 19</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -10502,17 +12171,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>Site Code</t>
         </is>
       </c>
-      <c r="B1" s="31" t="inlineStr">
+      <c r="B1" s="32" t="inlineStr">
         <is>
           <t>Site_Code_Address_rus</t>
         </is>
       </c>
-      <c r="C1" s="31" t="inlineStr">
+      <c r="C1" s="32" t="inlineStr">
         <is>
           <t>Site_Code_Address_eng</t>
         </is>
@@ -10858,20 +12527,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>Site Code</t>
         </is>
       </c>
-      <c r="B1" s="30" t="inlineStr">
+      <c r="B1" s="32" t="inlineStr">
         <is>
           <t>Site_Code_Address_rus</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="32" t="inlineStr">
         <is>
           <t>Site_Code_Address_eng</t>
         </is>
@@ -10883,6 +12552,16 @@
           <t>BTS_001</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10890,6 +12569,16 @@
           <t>BTS_001U</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001U, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10897,6 +12586,16 @@
           <t>BTS_001L</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Марз1, ул. 1, зд. 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BTS - BTS_001L, Region1, str. 1, bld. 1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10904,6 +12603,16 @@
           <t>BTS_002</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10911,6 +12620,16 @@
           <t>BTS_002U</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002U, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10918,6 +12637,16 @@
           <t>BTS_002L</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Марз2, ул. 1, зд. 2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BTS - BTS_002L, Region2, str. 1, bld. 2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10925,6 +12654,16 @@
           <t>BTS_003</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10932,6 +12671,16 @@
           <t>BTS_003U</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003U, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10939,6 +12688,16 @@
           <t>BTS_003L</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Марз3, ул. 1, зд. 3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BTS - BTS_003L, Region3, str. 1, bld. 3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10946,6 +12705,16 @@
           <t>BTS_004</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10953,6 +12722,16 @@
           <t>BTS_004U</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004U, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10960,6 +12739,16 @@
           <t>BTS_004L</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Марз4, ул. 1, зд. 4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BTS - BTS_004L, Region4, str. 1, bld. 4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10967,6 +12756,16 @@
           <t>BTS_005</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10974,6 +12773,16 @@
           <t>BTS_005U</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005U, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005U, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10981,6 +12790,16 @@
           <t>BTS_005L</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005L, Марз5, ул. 1, зд. 5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BTS - BTS_005L, Region5, str. 1, bld. 5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10988,6 +12807,16 @@
           <t>BTS_006</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10995,6 +12824,16 @@
           <t>BTS_006U</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006U, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11002,6 +12841,16 @@
           <t>BTS_006L</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Марз6, ул. 1, зд. 6</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BTS - BTS_006L, Region6, str. 1, bld. 6</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11009,6 +12858,16 @@
           <t>BTS_007</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11016,6 +12875,16 @@
           <t>BTS_007U</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007U, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11023,6 +12892,16 @@
           <t>BTS_007L</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Марз7, ул. 1, зд. 7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BTS - BTS_007L, Region7, str. 1, bld. 7</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11030,6 +12909,16 @@
           <t>BTS_008</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11037,6 +12926,16 @@
           <t>BTS_008U</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008U, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008U, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11044,6 +12943,16 @@
           <t>BTS_008L</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008L, Марз8, ул. 1, зд. 8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BTS - BTS_008L, Region8, str. 1, bld. 8</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11051,6 +12960,16 @@
           <t>BTS_009</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11058,6 +12977,16 @@
           <t>BTS_009U</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009U, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009U, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11065,6 +12994,16 @@
           <t>BTS_009L</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009L, Марз9, ул. 1, зд. 9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BTS - BTS_009L, Region9, str. 1, bld. 9</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11072,6 +13011,16 @@
           <t>BTS_010</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11079,6 +13028,16 @@
           <t>BTS_010U</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010U, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010U, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11086,6 +13045,16 @@
           <t>BTS_010L</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010L, Марз10, ул. 1, зд. 10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BTS - BTS_010L, Region10, str. 1, bld. 10</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11093,6 +13062,16 @@
           <t>BTS_011</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11100,6 +13079,16 @@
           <t>BTS_011U</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011U, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11107,6 +13096,16 @@
           <t>BTS_011L</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Марз11, ул. 1, зд. 11</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BTS - BTS_011L, Region11, str. 1, bld. 11</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11114,6 +13113,16 @@
           <t>BTS_012</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11121,6 +13130,16 @@
           <t>BTS_012U</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012U, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11128,6 +13147,16 @@
           <t>BTS_012L</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Марз12, ул. 1, зд. 12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BTS - BTS_012L, Region12, str. 1, bld. 12</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11135,6 +13164,16 @@
           <t>BTS_013</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BTS - BTS_013, Марз13, ул. 1, зд. 13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BTS - BTS_013, Region13, str. 1, bld. 13</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11142,6 +13181,16 @@
           <t>BTS_013U</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BTS - BTS_013U, Марз13, ул. 1, зд. 13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BTS - BTS_013U, Region13, str. 1, bld. 13</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11149,6 +13198,16 @@
           <t>BTS_013L</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BTS - BTS_013L, Марз13, ул. 1, зд. 13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BTS - BTS_013L, Region13, str. 1, bld. 13</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11156,6 +13215,16 @@
           <t>BTS_014</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BTS - BTS_014, Марз14, ул. 1, зд. 14</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BTS - BTS_014, Region14, str. 1, bld. 14</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11163,6 +13232,16 @@
           <t>BTS_014U</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BTS - BTS_014U, Марз14, ул. 1, зд. 14</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BTS - BTS_014U, Region14, str. 1, bld. 14</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11170,6 +13249,16 @@
           <t>BTS_014L</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BTS - BTS_014L, Марз14, ул. 1, зд. 14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BTS - BTS_014L, Region14, str. 1, bld. 14</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11177,6 +13266,16 @@
           <t>BTS_015</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11184,6 +13283,16 @@
           <t>BTS_015U</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015U, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015U, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11191,6 +13300,16 @@
           <t>BTS_015L</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015L, Марз15, ул. 1, зд. 15</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BTS - BTS_015L, Region15, str. 1, bld. 15</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11198,6 +13317,16 @@
           <t>BTS_016</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BTS - BTS_016, Марз16, ул. 1, зд. 16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BTS - BTS_016, Region16, str. 1, bld. 16</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11205,6 +13334,16 @@
           <t>BTS_016U</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BTS - BTS_016U, Марз16, ул. 1, зд. 16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BTS - BTS_016U, Region16, str. 1, bld. 16</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11212,6 +13351,16 @@
           <t>BTS_016L</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BTS - BTS_016L, Марз16, ул. 1, зд. 16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BTS - BTS_016L, Region16, str. 1, bld. 16</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11219,6 +13368,16 @@
           <t>BTS_017</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BTS - BTS_017, Марз17, ул. 1, зд. 17</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BTS - BTS_017, Region17, str. 1, bld. 17</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11226,6 +13385,16 @@
           <t>BTS_017U</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BTS - BTS_017U, Марз17, ул. 1, зд. 17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BTS - BTS_017U, Region17, str. 1, bld. 17</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11233,6 +13402,16 @@
           <t>BTS_017L</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BTS - BTS_017L, Марз17, ул. 1, зд. 17</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BTS - BTS_017L, Region17, str. 1, bld. 17</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11240,6 +13419,16 @@
           <t>BTS_018</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11247,6 +13436,16 @@
           <t>BTS_018U</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018U, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11254,6 +13453,16 @@
           <t>BTS_018L</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Марз18, ул. 1, зд. 18</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BTS - BTS_018L, Region18, str. 1, bld. 18</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11261,6 +13470,16 @@
           <t>BTS_019</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019, Region19, str. 2, bld. 19</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11268,11 +13487,31 @@
           <t>BTS_019U</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019U, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019U, Region19, str. 2, bld. 19</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
           <t>BTS_019L</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019L, Марз19, ул.2, зд. 19</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BTS - BTS_019L, Region19, str. 2, bld. 19</t>
         </is>
       </c>
     </row>
@@ -12703,95 +14942,95 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="30" t="inlineStr">
+      <c r="B1" s="32" t="inlineStr">
         <is>
           <t>Site Code</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="32" t="inlineStr">
         <is>
           <t>Affected Sites</t>
         </is>
       </c>
-      <c r="D1" s="30" t="inlineStr">
+      <c r="D1" s="32" t="inlineStr">
         <is>
           <t>Number Of Affected Sites</t>
         </is>
       </c>
-      <c r="E1" s="30" t="inlineStr">
+      <c r="E1" s="32" t="inlineStr">
         <is>
           <t>Problem Type</t>
         </is>
       </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="F1" s="32" t="inlineStr">
         <is>
           <t>Common Problem</t>
         </is>
       </c>
-      <c r="G1" s="30" t="inlineStr">
+      <c r="G1" s="32" t="inlineStr">
         <is>
           <t>Problem Title</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="32" t="inlineStr">
         <is>
           <t>Disturbed Link</t>
         </is>
       </c>
-      <c r="I1" s="30" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>Problem Location</t>
         </is>
       </c>
-      <c r="J1" s="30" t="inlineStr">
+      <c r="J1" s="32" t="inlineStr">
         <is>
           <t>Solved By:</t>
         </is>
       </c>
-      <c r="K1" s="30" t="inlineStr">
+      <c r="K1" s="32" t="inlineStr">
         <is>
           <t>Additional Information</t>
         </is>
       </c>
-      <c r="L1" s="30" t="inlineStr">
+      <c r="L1" s="32" t="inlineStr">
         <is>
           <t>Start Data for Luso</t>
         </is>
       </c>
-      <c r="M1" s="30" t="inlineStr">
+      <c r="M1" s="32" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="N1" s="30" t="inlineStr">
+      <c r="N1" s="32" t="inlineStr">
         <is>
           <t>End Date for Luso</t>
         </is>
       </c>
-      <c r="O1" s="30" t="inlineStr">
+      <c r="O1" s="32" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="P1" s="30" t="inlineStr">
+      <c r="P1" s="32" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="Q1" s="30" t="inlineStr">
+      <c r="Q1" s="32" t="inlineStr">
         <is>
           <t>ProblemDescription_eng</t>
         </is>
       </c>
-      <c r="R1" s="30" t="inlineStr">
+      <c r="R1" s="32" t="inlineStr">
         <is>
           <t>ProblemDescription_rus</t>
         </is>
@@ -12834,7 +15073,7 @@
           <t>BTS_001</t>
         </is>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="34" t="n">
         <v>45544</v>
       </c>
       <c r="M2" t="inlineStr">
@@ -12842,7 +15081,7 @@
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="34" t="n">
         <v>45544</v>
       </c>
       <c r="O2" t="inlineStr">
@@ -12885,7 +15124,7 @@
           <t>BTS_002</t>
         </is>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="34" t="n">
         <v>45545</v>
       </c>
       <c r="M3" t="inlineStr">
@@ -12893,7 +15132,7 @@
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="34" t="n">
         <v>45546</v>
       </c>
       <c r="O3" t="inlineStr">
@@ -12954,7 +15193,7 @@
           <t>BTS_003</t>
         </is>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="34" t="n">
         <v>45545</v>
       </c>
       <c r="M4" t="inlineStr">
@@ -12962,7 +15201,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="34" t="n">
         <v>45546</v>
       </c>
       <c r="O4" t="inlineStr">
@@ -13015,7 +15254,7 @@
           <t>Software Restart</t>
         </is>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="34" t="n">
         <v>45547</v>
       </c>
       <c r="M5" t="inlineStr">
@@ -13023,7 +15262,7 @@
           <t>09:00:00</t>
         </is>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="34" t="n">
         <v>45547</v>
       </c>
       <c r="O5" t="inlineStr">
@@ -13071,7 +15310,7 @@
           <t>Change</t>
         </is>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="34" t="n">
         <v>45547</v>
       </c>
       <c r="M6" t="inlineStr">
@@ -13079,7 +15318,7 @@
           <t>21:00:00</t>
         </is>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="34" t="n">
         <v>45547</v>
       </c>
       <c r="O6" t="inlineStr">
@@ -13125,7 +15364,7 @@
           <t>ENA Power Off</t>
         </is>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="34" t="n">
         <v>45549</v>
       </c>
       <c r="M7" t="inlineStr">
@@ -13133,7 +15372,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N7" s="11" t="n">
+      <c r="N7" s="34" t="n">
         <v>45549</v>
       </c>
       <c r="O7" t="inlineStr">
@@ -13176,7 +15415,7 @@
           <t>Generator Problem</t>
         </is>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="34" t="n">
         <v>45555</v>
       </c>
       <c r="M8" t="inlineStr">
@@ -13184,7 +15423,7 @@
           <t>04:00:00</t>
         </is>
       </c>
-      <c r="N8" s="11" t="n">
+      <c r="N8" s="34" t="n">
         <v>45555</v>
       </c>
       <c r="O8" t="inlineStr">
@@ -13227,7 +15466,7 @@
           <t>BTS_008_BTS_009</t>
         </is>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="34" t="n">
         <v>45556</v>
       </c>
       <c r="M9" t="inlineStr">
@@ -13235,7 +15474,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N9" s="11" t="n">
+      <c r="N9" s="34" t="n">
         <v>45557</v>
       </c>
       <c r="O9" t="inlineStr">
@@ -13288,7 +15527,7 @@
           <t>BTS_009</t>
         </is>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="34" t="n">
         <v>45556</v>
       </c>
       <c r="M10" t="inlineStr">
@@ -13296,7 +15535,7 @@
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="N10" s="11" t="n">
+      <c r="N10" s="34" t="n">
         <v>45556</v>
       </c>
       <c r="O10" t="inlineStr">
@@ -13362,7 +15601,7 @@
           <t>Change</t>
         </is>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="34" t="n">
         <v>45556</v>
       </c>
       <c r="M11" t="inlineStr">
@@ -13370,7 +15609,7 @@
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="34" t="n">
         <v>45556</v>
       </c>
       <c r="O11" t="inlineStr">
@@ -13428,7 +15667,7 @@
           <t>Hard Restart</t>
         </is>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="34" t="n">
         <v>45556</v>
       </c>
       <c r="M12" t="inlineStr">
@@ -13436,7 +15675,7 @@
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="34" t="n">
         <v>45557</v>
       </c>
       <c r="O12" t="inlineStr">
@@ -13494,7 +15733,7 @@
           <t>Change</t>
         </is>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="34" t="n">
         <v>45559</v>
       </c>
       <c r="M13" t="inlineStr">
@@ -13502,7 +15741,7 @@
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="34" t="n">
         <v>45559</v>
       </c>
       <c r="O13" t="inlineStr">
@@ -13560,7 +15799,7 @@
           <t>Change</t>
         </is>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="34" t="n">
         <v>45559</v>
       </c>
       <c r="M14" t="inlineStr">
@@ -13568,7 +15807,7 @@
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="34" t="n">
         <v>45559</v>
       </c>
       <c r="O14" t="inlineStr">
@@ -13626,7 +15865,7 @@
           <t>Hard Restart</t>
         </is>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="34" t="n">
         <v>45561</v>
       </c>
       <c r="M15" t="inlineStr">
@@ -13634,7 +15873,7 @@
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="34" t="n">
         <v>45561</v>
       </c>
       <c r="O15" t="inlineStr">
@@ -13682,7 +15921,7 @@
           <t>Hard Restart</t>
         </is>
       </c>
-      <c r="L16" s="11" t="n">
+      <c r="L16" s="34" t="n">
         <v>45545</v>
       </c>
       <c r="M16" t="inlineStr">
@@ -13690,7 +15929,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N16" s="11" t="n">
+      <c r="N16" s="34" t="n">
         <v>45546</v>
       </c>
       <c r="O16" t="inlineStr">
@@ -13728,7 +15967,7 @@
           <t>Cabinet/Shelter Problem</t>
         </is>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="34" t="n">
         <v>45561</v>
       </c>
       <c r="M17" t="inlineStr">
@@ -13736,7 +15975,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N17" s="11" t="n">
+      <c r="N17" s="34" t="n">
         <v>45561</v>
       </c>
       <c r="O17" t="inlineStr">
@@ -13784,7 +16023,7 @@
           <t>Autorecovery</t>
         </is>
       </c>
-      <c r="L18" s="11" t="n">
+      <c r="L18" s="34" t="n">
         <v>45561</v>
       </c>
       <c r="M18" t="inlineStr">
@@ -13792,7 +16031,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N18" s="11" t="n">
+      <c r="N18" s="34" t="n">
         <v>45561</v>
       </c>
       <c r="O18" t="inlineStr">
@@ -13830,7 +16069,7 @@
           <t>Not Detected</t>
         </is>
       </c>
-      <c r="L19" s="11" t="n">
+      <c r="L19" s="34" t="n">
         <v>45546</v>
       </c>
       <c r="M19" t="inlineStr">
@@ -13838,7 +16077,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N19" s="11" t="n">
+      <c r="N19" s="34" t="n">
         <v>45546</v>
       </c>
       <c r="O19" t="inlineStr">
@@ -13876,7 +16115,7 @@
           <t>ENA Power Off</t>
         </is>
       </c>
-      <c r="L20" s="11" t="n">
+      <c r="L20" s="34" t="n">
         <v>45557</v>
       </c>
       <c r="M20" t="inlineStr">
@@ -13884,7 +16123,7 @@
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="N20" s="11" t="n">
+      <c r="N20" s="34" t="n">
         <v>45557</v>
       </c>
       <c r="O20" t="inlineStr">
@@ -13927,7 +16166,7 @@
           <t>BBU</t>
         </is>
       </c>
-      <c r="L21" s="11" t="n">
+      <c r="L21" s="34" t="n">
         <v>45565</v>
       </c>
       <c r="M21" t="inlineStr">
@@ -13935,7 +16174,7 @@
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="N21" s="11" t="n">
+      <c r="N21" s="34" t="n">
         <v>45565</v>
       </c>
       <c r="O21" t="inlineStr">
@@ -13971,95 +16210,95 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="30" t="inlineStr">
+      <c r="B1" s="32" t="inlineStr">
         <is>
           <t>Site Code</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="32" t="inlineStr">
         <is>
           <t>Affected Sites</t>
         </is>
       </c>
-      <c r="D1" s="30" t="inlineStr">
+      <c r="D1" s="32" t="inlineStr">
         <is>
           <t>Number Of Affected Sites</t>
         </is>
       </c>
-      <c r="E1" s="30" t="inlineStr">
+      <c r="E1" s="32" t="inlineStr">
         <is>
           <t>Problem Type</t>
         </is>
       </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="F1" s="32" t="inlineStr">
         <is>
           <t>Common Problem</t>
         </is>
       </c>
-      <c r="G1" s="30" t="inlineStr">
+      <c r="G1" s="32" t="inlineStr">
         <is>
           <t>Problem Title</t>
         </is>
       </c>
-      <c r="H1" s="30" t="inlineStr">
+      <c r="H1" s="32" t="inlineStr">
         <is>
           <t>Disturbed Link</t>
         </is>
       </c>
-      <c r="I1" s="30" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>Problem Location</t>
         </is>
       </c>
-      <c r="J1" s="30" t="inlineStr">
+      <c r="J1" s="32" t="inlineStr">
         <is>
           <t>Solved By:</t>
         </is>
       </c>
-      <c r="K1" s="30" t="inlineStr">
+      <c r="K1" s="32" t="inlineStr">
         <is>
           <t>Additional Information</t>
         </is>
       </c>
-      <c r="L1" s="30" t="inlineStr">
+      <c r="L1" s="32" t="inlineStr">
         <is>
           <t>Start Data for Luso</t>
         </is>
       </c>
-      <c r="M1" s="30" t="inlineStr">
+      <c r="M1" s="32" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="N1" s="30" t="inlineStr">
+      <c r="N1" s="32" t="inlineStr">
         <is>
           <t>End Date for Luso</t>
         </is>
       </c>
-      <c r="O1" s="30" t="inlineStr">
+      <c r="O1" s="32" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="P1" s="30" t="inlineStr">
+      <c r="P1" s="32" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="Q1" s="30" t="inlineStr">
+      <c r="Q1" s="32" t="inlineStr">
         <is>
           <t>ProblemDescription_eng</t>
         </is>
       </c>
-      <c r="R1" s="30" t="inlineStr">
+      <c r="R1" s="32" t="inlineStr">
         <is>
           <t>ProblemDescription_rus</t>
         </is>
